--- a/results/javascript/Font-Awesome/Font-Awesome_without_min.xlsx
+++ b/results/javascript/Font-Awesome/Font-Awesome_without_min.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamc\Documents\CodeSize\CodeSize\results\javascript\Font-Awesome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashort11/research/CodeSize/results/javascript/Font-Awesome/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D9B4A4-2147-4549-8931-553F5E51F8AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECA4B78-E193-7845-A6D0-23A7014A4102}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="27800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Font-Awesome3" sheetId="1" r:id="rId1"/>
@@ -1212,12 +1212,12 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1287,15 +1287,15 @@
         <v>18.134529147982065</v>
       </c>
       <c r="N2" s="2">
-        <f>_xlfn.STDEV.P(C2:C670)</f>
-        <v>64.150186873456377</v>
+        <f>_xlfn.STDEV.S(C2:C670)</f>
+        <v>64.198185523548801</v>
       </c>
       <c r="O2" s="2">
         <f>N2/SQRT(COUNT(C2:C670))</f>
-        <v>2.4801895136795258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.4820452487043485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1330,15 +1330,15 @@
         <v>82.139013452914796</v>
       </c>
       <c r="N3" s="2">
-        <f>_xlfn.STDEV.P(D2:D670)</f>
-        <v>54.106356974901608</v>
+        <f>_xlfn.STDEV.S(D2:D670)</f>
+        <v>54.146840599701285</v>
       </c>
       <c r="O3" s="2">
         <f>N3/SQRT(COUNT(D2:D670))</f>
-        <v>2.0918726153871567</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.0934378027482152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1373,15 +1373,15 @@
         <v>5.6591928251121075</v>
       </c>
       <c r="N4" s="2">
-        <f>_xlfn.STDEV.P(E2:E670)</f>
-        <v>2.4793002424606447</v>
+        <f>_xlfn.STDEV.S(E2:E670)</f>
+        <v>2.4811553121122221</v>
       </c>
       <c r="O4" s="2">
         <f>N4/SQRT(COUNT(E2:E670))</f>
-        <v>9.5855285265869478E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.59270064021783E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <f>_xlfn.STDEV.P(F2:F670)</f>
+        <f>_xlfn.STDEV.S(F2:F670)</f>
         <v>0</v>
       </c>
       <c r="O5" s="2">
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>18</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>18</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>18</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>18</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>18</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>18</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>18</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>18</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>18</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>18</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>18</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>18</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>18</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>18</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>18</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>18</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>18</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>18</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>18</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>18</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>18</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>18</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>18</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>18</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>18</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>18</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>18</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>18</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>18</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>18</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>89</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>89</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>89</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>89</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>89</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>89</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>89</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>89</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>89</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>90</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>90</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>90</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>90</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>90</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>90</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>90</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>90</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>90</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>90</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>90</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>90</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>90</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>90</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>90</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>90</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>90</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>90</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>90</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>90</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>90</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>90</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>90</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>90</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>90</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>90</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>90</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>90</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>90</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>90</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>90</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>90</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>90</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>90</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>90</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>90</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>90</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>90</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>90</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>90</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>90</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>90</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>90</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>90</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>90</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>90</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>90</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>90</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>90</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>90</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>90</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>90</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>90</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>90</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>90</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>90</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>90</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>90</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>90</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>90</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>90</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>90</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>90</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>90</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>90</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>90</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>90</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>90</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>90</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>90</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>90</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>90</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>90</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>90</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>90</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>90</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>90</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>90</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>90</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>90</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>90</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>90</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>90</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>90</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>90</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>90</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>90</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>90</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>90</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>90</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>90</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>90</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>91</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>91</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>91</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>91</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>91</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>91</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>91</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>91</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>91</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>92</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>94</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>94</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>94</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>94</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>94</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>94</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>94</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>94</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>94</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>94</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>94</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>94</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>94</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>94</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>94</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>94</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>94</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>94</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>94</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>94</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>94</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>94</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>94</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>94</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>94</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>94</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>94</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>94</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>94</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>94</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>94</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>94</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>94</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>94</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>94</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>94</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>94</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>94</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>94</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>94</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>94</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>94</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>94</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>94</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>94</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>94</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>94</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>94</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>94</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>94</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>94</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>94</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>94</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>94</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>94</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>94</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>94</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>94</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>94</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>94</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>94</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>94</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>94</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>94</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>94</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>94</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>94</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>94</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>94</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>94</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>94</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>94</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>94</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>94</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>94</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>94</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>94</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>94</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>94</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>94</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>94</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>94</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>94</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>94</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>94</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>94</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>95</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>95</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>95</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>95</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>95</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>95</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>95</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>95</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>95</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>95</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>95</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>95</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>95</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>95</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>95</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>95</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>95</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>95</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>95</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>95</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>95</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>95</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>95</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>95</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>95</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>95</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>95</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>95</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>95</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>95</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>95</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>95</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>95</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>95</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>95</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>95</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>95</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>95</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>95</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>95</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>95</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>95</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>95</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>95</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>95</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>95</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>95</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>95</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>95</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>95</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>95</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>95</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>95</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>95</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>95</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>95</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>95</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>95</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>95</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>95</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>95</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>95</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>95</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>95</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>95</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>95</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>95</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>95</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>95</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>95</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>95</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>95</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>95</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>95</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>95</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>95</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>95</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>95</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>95</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>95</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>95</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>95</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>95</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>95</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>95</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>95</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>95</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>95</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>95</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>95</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>96</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>97</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>98</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>98</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>98</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>98</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>99</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>99</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>99</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>99</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>99</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>99</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>99</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>99</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>99</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>100</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>100</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>100</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>100</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>100</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>100</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>100</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>100</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>100</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>100</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>100</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>100</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>100</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>100</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>100</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>100</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>100</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>100</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>100</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>100</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>100</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>100</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>100</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>100</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>100</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>100</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>100</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>100</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>100</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>100</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>100</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>100</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>100</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>100</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>100</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>100</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>100</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>100</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>100</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>100</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>100</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>100</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>100</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>100</v>
       </c>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>100</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>100</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>100</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>100</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>100</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>100</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>100</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>100</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>100</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>100</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>100</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>100</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>100</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>100</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>100</v>
       </c>
@@ -11244,7 +11244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>100</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>100</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>100</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>100</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>100</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>100</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>100</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>100</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>100</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>100</v>
       </c>
@@ -11444,7 +11444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>100</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>100</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>100</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>100</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>100</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>100</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>100</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>100</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>100</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>100</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>100</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>100</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>100</v>
       </c>
@@ -11704,7 +11704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>100</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>100</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>100</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>100</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>100</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>100</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>100</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>100</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>100</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>100</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>100</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>100</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>100</v>
       </c>
@@ -11964,7 +11964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>100</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>100</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>100</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>100</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>100</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>100</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>100</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>100</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>100</v>
       </c>
@@ -12144,7 +12144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>100</v>
       </c>
@@ -12164,7 +12164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>100</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>100</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>100</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>100</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>100</v>
       </c>
@@ -12264,7 +12264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>100</v>
       </c>
@@ -12284,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>100</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>100</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>100</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>100</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>100</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>100</v>
       </c>
@@ -12404,7 +12404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>100</v>
       </c>
@@ -12424,7 +12424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>100</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>100</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>100</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>101</v>
       </c>
@@ -12504,7 +12504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>101</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>101</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>101</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>101</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>101</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>101</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>101</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>101</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>102</v>
       </c>
@@ -12684,7 +12684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>102</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>102</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>102</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>102</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>102</v>
       </c>
@@ -12784,7 +12784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>102</v>
       </c>
@@ -12804,7 +12804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>102</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>102</v>
       </c>
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>102</v>
       </c>
@@ -12864,7 +12864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>102</v>
       </c>
@@ -12884,7 +12884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>102</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>102</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>102</v>
       </c>
@@ -12944,7 +12944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>102</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>102</v>
       </c>
@@ -12984,7 +12984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>102</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>102</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>102</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>102</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>102</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>102</v>
       </c>
@@ -13104,7 +13104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>102</v>
       </c>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>102</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>102</v>
       </c>
@@ -13164,7 +13164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>102</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>102</v>
       </c>
@@ -13204,7 +13204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>102</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>102</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>102</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>102</v>
       </c>
@@ -13284,7 +13284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>102</v>
       </c>
@@ -13304,7 +13304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>102</v>
       </c>
@@ -13324,7 +13324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>102</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>102</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>102</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>102</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>102</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>102</v>
       </c>
@@ -13444,7 +13444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>102</v>
       </c>
@@ -13464,7 +13464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>102</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>102</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>102</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>102</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>102</v>
       </c>
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>102</v>
       </c>
@@ -13584,7 +13584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>102</v>
       </c>
@@ -13604,7 +13604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>102</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>102</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>102</v>
       </c>
@@ -13664,7 +13664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>102</v>
       </c>
@@ -13684,7 +13684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>102</v>
       </c>
@@ -13704,7 +13704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>102</v>
       </c>
@@ -13724,7 +13724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>102</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>102</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>102</v>
       </c>
@@ -13784,7 +13784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>102</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>102</v>
       </c>
@@ -13824,7 +13824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>102</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>102</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>102</v>
       </c>
@@ -13884,7 +13884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>102</v>
       </c>
@@ -13904,7 +13904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>102</v>
       </c>
@@ -13924,7 +13924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>102</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>102</v>
       </c>
@@ -13964,7 +13964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>102</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>102</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>102</v>
       </c>
@@ -14024,7 +14024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>102</v>
       </c>
@@ -14044,7 +14044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>102</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>102</v>
       </c>
@@ -14084,7 +14084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>102</v>
       </c>
@@ -14104,7 +14104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>102</v>
       </c>
@@ -14124,7 +14124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>102</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>102</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>102</v>
       </c>
@@ -14184,7 +14184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>102</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>102</v>
       </c>
@@ -14224,7 +14224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>102</v>
       </c>
@@ -14244,7 +14244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>102</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>102</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>102</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>102</v>
       </c>
@@ -14324,7 +14324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>102</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>102</v>
       </c>
@@ -14364,7 +14364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>102</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>102</v>
       </c>
@@ -14404,7 +14404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>102</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>102</v>
       </c>
@@ -14444,7 +14444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>102</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>102</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>102</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>102</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>102</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>103</v>
       </c>
@@ -14564,7 +14564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>103</v>
       </c>
@@ -14584,7 +14584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>103</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>103</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>103</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>103</v>
       </c>
@@ -14664,7 +14664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>103</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>103</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>103</v>
       </c>
